--- a/data/testScript.xlsx
+++ b/data/testScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{65DEE52B-56F7-4158-B3C4-53FB549D8561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{357E5D86-D02B-42A6-8399-6E0402D15130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{BF57E34D-16F9-408D-8959-64FA89BFA070}"/>
   </bookViews>
@@ -12,28 +12,17 @@
     <sheet name="StudentDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P18"/>
+  <oleSize ref="A1:P19"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t xml:space="preserve">    Student Name</t>
   </si>
@@ -224,9 +213,6 @@
     <t>SOUTH</t>
   </si>
   <si>
-    <t>CHITOOR</t>
-  </si>
-  <si>
     <t xml:space="preserve">     </t>
   </si>
   <si>
@@ -234,9 +220,6 @@
   </si>
   <si>
     <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t>ravi</t>
   </si>
   <si>
     <t>pass456</t>
@@ -252,7 +235,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,10 +631,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.28515625"/>
-    <col min="2" max="2" customWidth="true" width="17.7109375"/>
-    <col min="3" max="3" customWidth="true" width="14.42578125"/>
-    <col min="4" max="4" customWidth="true" width="13.140625"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -680,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -688,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -708,7 +690,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -730,13 +712,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -806,12 +788,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="12.140625"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -867,7 +849,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -875,7 +857,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
@@ -886,7 +868,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>47</v>
@@ -922,8 +904,8 @@
       <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>63</v>
+      <c r="D8" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,6 +926,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="06aa5567-a935-4554-b14a-b86f72a1cdf3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD747DCA6A940645B10775716902F8B1" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="19383ea4d328309d24c87b2dfa6c3a88">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="06aa5567-a935-4554-b14a-b86f72a1cdf3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2a6eb50db5bdaae6b0570bb6c66d5c4" ns3:_="">
     <xsd:import namespace="06aa5567-a935-4554-b14a-b86f72a1cdf3"/>
@@ -1081,24 +1080,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBAA47F-BE5E-4747-8639-B55D0D3D130D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="06aa5567-a935-4554-b14a-b86f72a1cdf3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="06aa5567-a935-4554-b14a-b86f72a1cdf3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E2E545-1FAE-4148-8820-B102263F56ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C029E368-A3B8-4145-AC37-0FE46ACA0EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1114,28 +1120,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E2E545-1FAE-4148-8820-B102263F56ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBAA47F-BE5E-4747-8639-B55D0D3D130D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="06aa5567-a935-4554-b14a-b86f72a1cdf3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>